--- a/result/with_base/34/valence/s15_2.xlsx
+++ b/result/with_base/34/valence/s15_2.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8774999976158142</v>
+        <v>0.859375</v>
       </c>
       <c r="C2" t="n">
-        <v>41684.51953125</v>
+        <v>11278.3173828125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8670454512942921</v>
+        <v>0.8504464275696698</v>
       </c>
       <c r="E2" t="n">
-        <v>41685.78799715909</v>
+        <v>11277.67015165441</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C3" t="n">
-        <v>40883.404296875</v>
+        <v>10962.20068359375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9073863625526428</v>
+        <v>0.906381302020129</v>
       </c>
       <c r="E3" t="n">
-        <v>40884.80965909091</v>
+        <v>10962.59817325368</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40091.603515625</v>
+        <v>10652.005859375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9298863681879911</v>
+        <v>0.9180015746284934</v>
       </c>
       <c r="E4" t="n">
-        <v>40092.39098011364</v>
+        <v>10652.20323988971</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39312.27734375</v>
+        <v>10348.353515625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9402272755449469</v>
+        <v>0.9265362409984365</v>
       </c>
       <c r="E5" t="n">
-        <v>39312.73046875</v>
+        <v>10348.47386259191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C6" t="n">
-        <v>38546.69921875</v>
+        <v>10051.50537109375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9417045441540804</v>
+        <v>0.9386817216873169</v>
       </c>
       <c r="E6" t="n">
-        <v>38546.90589488636</v>
+        <v>10051.42572380515</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9296875</v>
       </c>
       <c r="C7" t="n">
-        <v>37793.947265625</v>
+        <v>9761.68017578125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9496590874411843</v>
+        <v>0.9289653371362125</v>
       </c>
       <c r="E7" t="n">
-        <v>37793.65873579546</v>
+        <v>9761.645795036764</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C8" t="n">
-        <v>37054.580078125</v>
+        <v>9478.91943359375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9565908963030035</v>
+        <v>0.9504332998219658</v>
       </c>
       <c r="E8" t="n">
-        <v>37053.86115056818</v>
+        <v>9478.851677389706</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9352678656578064</v>
       </c>
       <c r="C9" t="n">
-        <v>36328.2734375</v>
+        <v>9203.67529296875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9596590779044412</v>
+        <v>0.9453781527631423</v>
       </c>
       <c r="E9" t="n">
-        <v>36327.72088068182</v>
+        <v>9203.524701286764</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9296875</v>
       </c>
       <c r="C10" t="n">
-        <v>35615.08203125</v>
+        <v>8935.51318359375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9674999984827909</v>
+        <v>0.9533219547832713</v>
       </c>
       <c r="E10" t="n">
-        <v>35614.90909090909</v>
+        <v>8935.283088235294</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9475446343421936</v>
       </c>
       <c r="C11" t="n">
-        <v>34916.53125</v>
+        <v>8674.01123046875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9632954543287103</v>
+        <v>0.9588366606656242</v>
       </c>
       <c r="E11" t="n">
-        <v>34915.93998579546</v>
+        <v>8673.807502297794</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C12" t="n">
-        <v>34230.29296875</v>
+        <v>8419.75</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9703409184109081</v>
+        <v>0.9614627115866717</v>
       </c>
       <c r="E12" t="n">
-        <v>34229.40873579546</v>
+        <v>8419.438706341913</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C13" t="n">
-        <v>33556.123046875</v>
+        <v>8172.107666015625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9684090939435092</v>
+        <v>0.9602153371362125</v>
       </c>
       <c r="E13" t="n">
-        <v>33555.88884943182</v>
+        <v>8171.818330652573</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C14" t="n">
-        <v>32895.705078125</v>
+        <v>7931.18798828125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9777272939682007</v>
+        <v>0.9625131312538596</v>
       </c>
       <c r="E14" t="n">
-        <v>32895.04403409091</v>
+        <v>7930.89932789522</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9514508843421936</v>
       </c>
       <c r="C15" t="n">
-        <v>32247.25390625</v>
+        <v>7696.74609375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9694318175315857</v>
+        <v>0.9739364490789526</v>
       </c>
       <c r="E15" t="n">
-        <v>32246.87819602273</v>
+        <v>7696.475729549632</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9559151828289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31610.93359375</v>
+        <v>7468.7373046875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9746590961109508</v>
+        <v>0.972229515804964</v>
       </c>
       <c r="E16" t="n">
-        <v>31610.72727272727</v>
+        <v>7468.454072840073</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C17" t="n">
-        <v>30986.87109375</v>
+        <v>7246.99560546875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9776136495850303</v>
+        <v>0.9634322489009184</v>
       </c>
       <c r="E17" t="n">
-        <v>30986.705078125</v>
+        <v>7246.754451976103</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9520089328289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30374.625</v>
+        <v>7031.143310546875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9848863699219443</v>
+        <v>0.9759716391563416</v>
       </c>
       <c r="E18" t="n">
-        <v>30374.30291193182</v>
+        <v>7030.900907628677</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9559151828289032</v>
       </c>
       <c r="C19" t="n">
-        <v>29773.9150390625</v>
+        <v>6821.420654296875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9834091067314148</v>
+        <v>0.964285713784835</v>
       </c>
       <c r="E19" t="n">
-        <v>29773.60014204546</v>
+        <v>6821.204762178309</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9642857015132904</v>
       </c>
       <c r="C20" t="n">
-        <v>29184.7890625</v>
+        <v>6617.307373046875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9844318249008872</v>
+        <v>0.9667804626857534</v>
       </c>
       <c r="E20" t="n">
-        <v>29184.34002130682</v>
+        <v>6617.117043887868</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C21" t="n">
-        <v>28606.6982421875</v>
+        <v>6418.963623046875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9842045578089628</v>
+        <v>0.9720325645278481</v>
       </c>
       <c r="E21" t="n">
-        <v>28606.31622869318</v>
+        <v>6418.659897748162</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9475446343421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28039.47265625</v>
+        <v>6226.015869140625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9889772805300626</v>
+        <v>0.9724921233513776</v>
       </c>
       <c r="E22" t="n">
-        <v>28039.22212357954</v>
+        <v>6225.739688648897</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27483.2763671875</v>
+        <v>6038.419921875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9872727285731923</v>
+        <v>0.9695378156269298</v>
       </c>
       <c r="E23" t="n">
-        <v>27482.951171875</v>
+        <v>6038.153492647059</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9525669515132904</v>
       </c>
       <c r="C24" t="n">
-        <v>26937.4208984375</v>
+        <v>5855.926513671875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9885227355090055</v>
+        <v>0.9757746843730702</v>
       </c>
       <c r="E24" t="n">
-        <v>26937.17134232954</v>
+        <v>5855.700482536765</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9520089328289032</v>
       </c>
       <c r="C25" t="n">
-        <v>26402.134765625</v>
+        <v>5678.626708984375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9881818294525146</v>
+        <v>0.9735425430185655</v>
       </c>
       <c r="E25" t="n">
-        <v>26401.79421164773</v>
+        <v>5678.428165211397</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C26" t="n">
-        <v>25876.9833984375</v>
+        <v>5506.28125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9876136454668912</v>
+        <v>0.9715073529411765</v>
       </c>
       <c r="E26" t="n">
-        <v>25876.55699573864</v>
+        <v>5506.08203125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9559151828289032</v>
       </c>
       <c r="C27" t="n">
-        <v>25361.7060546875</v>
+        <v>5338.673828125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9831818342208862</v>
+        <v>0.9824054626857534</v>
       </c>
       <c r="E27" t="n">
-        <v>25361.40767045454</v>
+        <v>5338.455595128677</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C28" t="n">
-        <v>24856.224609375</v>
+        <v>5175.8623046875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9894318255511197</v>
+        <v>0.9672400215092827</v>
       </c>
       <c r="E28" t="n">
-        <v>24855.84712357954</v>
+        <v>5175.674632352941</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9514508843421936</v>
       </c>
       <c r="C29" t="n">
-        <v>24360.1796875</v>
+        <v>5017.517333984375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.9713760509210474</v>
       </c>
       <c r="E29" t="n">
-        <v>24360.09588068182</v>
+        <v>5017.34716796875</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9598214328289032</v>
       </c>
       <c r="C30" t="n">
-        <v>23873.806640625</v>
+        <v>4863.626220703125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9882954629984769</v>
+        <v>0.9782037805108463</v>
       </c>
       <c r="E30" t="n">
-        <v>23873.67631392046</v>
+        <v>4863.470875459559</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C31" t="n">
-        <v>23396.771484375</v>
+        <v>4714.204833984375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9873863729563627</v>
+        <v>0.968487395959742</v>
       </c>
       <c r="E31" t="n">
-        <v>23396.60671164773</v>
+        <v>4714.020249310662</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C32" t="n">
-        <v>22928.625</v>
+        <v>4568.9228515625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9868181943893433</v>
+        <v>0.973214286215165</v>
       </c>
       <c r="E32" t="n">
-        <v>22928.47088068182</v>
+        <v>4568.754193474265</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C33" t="n">
-        <v>22469.42578125</v>
+        <v>4427.708251953125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9783350825309753</v>
       </c>
       <c r="E33" t="n">
-        <v>22469.19992897727</v>
+        <v>4427.570657169118</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C34" t="n">
-        <v>22019.005859375</v>
+        <v>4290.676025390625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9597557783126831</v>
       </c>
       <c r="E34" t="n">
-        <v>22018.72869318182</v>
+        <v>4290.527688419118</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9603794515132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21577.126953125</v>
+        <v>4157.369140625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.986704555424777</v>
+        <v>0.9746586119427401</v>
       </c>
       <c r="E35" t="n">
-        <v>21576.93714488636</v>
+        <v>4157.251694623162</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9598214328289032</v>
       </c>
       <c r="C36" t="n">
-        <v>21143.62109375</v>
+        <v>4027.909057617188</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9772190136068007</v>
       </c>
       <c r="E36" t="n">
-        <v>21143.42595880682</v>
+        <v>4027.82861328125</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9642857015132904</v>
       </c>
       <c r="C37" t="n">
-        <v>20718.4677734375</v>
+        <v>3902.189208984375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9757746843730702</v>
       </c>
       <c r="E37" t="n">
-        <v>20718.251953125</v>
+        <v>3902.084903492647</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C38" t="n">
-        <v>20301.49609375</v>
+        <v>3780.125244140625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.98556818745353</v>
+        <v>0.9596901255495408</v>
       </c>
       <c r="E38" t="n">
-        <v>20301.22017045454</v>
+        <v>3780.034739774816</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C39" t="n">
-        <v>19892.259765625</v>
+        <v>3661.467041015625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.973082984195036</v>
       </c>
       <c r="E39" t="n">
-        <v>19892.02876420454</v>
+        <v>3661.320614085478</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C40" t="n">
-        <v>19490.779296875</v>
+        <v>3546.205688476562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9928409132090482</v>
+        <v>0.9762342431965996</v>
       </c>
       <c r="E40" t="n">
-        <v>19490.63210227273</v>
+        <v>3546.068632238052</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C41" t="n">
-        <v>19097.078125</v>
+        <v>3434.2529296875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9922727346420288</v>
+        <v>0.9709164920975181</v>
       </c>
       <c r="E41" t="n">
-        <v>19096.93110795454</v>
+        <v>3434.169835707721</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9514508843421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18710.896484375</v>
+        <v>3325.592529296875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9689469547832713</v>
       </c>
       <c r="E42" t="n">
-        <v>18710.74591619318</v>
+        <v>3325.495260799632</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9564732015132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18331.9580078125</v>
+        <v>3220.011962890625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9713103981579051</v>
       </c>
       <c r="E43" t="n">
-        <v>18331.85617897727</v>
+        <v>3219.92134363511</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9564732015132904</v>
       </c>
       <c r="C44" t="n">
-        <v>17960.3349609375</v>
+        <v>3117.521484375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9774816176470589</v>
       </c>
       <c r="E44" t="n">
-        <v>17960.22567471591</v>
+        <v>3117.403593175552</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9520089328289032</v>
       </c>
       <c r="C45" t="n">
-        <v>17595.826171875</v>
+        <v>3018.037841796875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9936363697052002</v>
+        <v>0.9770220588235294</v>
       </c>
       <c r="E45" t="n">
-        <v>17595.69868607954</v>
+        <v>3017.888011259191</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9637276828289032</v>
       </c>
       <c r="C46" t="n">
-        <v>17238.23046875</v>
+        <v>2921.38525390625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9696034648839165</v>
       </c>
       <c r="E46" t="n">
-        <v>17238.12748579546</v>
+        <v>2921.287267348346</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9603794515132904</v>
       </c>
       <c r="C47" t="n">
-        <v>16887.556640625</v>
+        <v>2827.540283203125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9749868687461404</v>
       </c>
       <c r="E47" t="n">
-        <v>16887.35387073864</v>
+        <v>2827.437112247243</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9642857015132904</v>
       </c>
       <c r="C48" t="n">
-        <v>16543.4658203125</v>
+        <v>2736.466430664062</v>
       </c>
       <c r="D48" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9653361334520227</v>
       </c>
       <c r="E48" t="n">
-        <v>16543.29740767046</v>
+        <v>2736.384191176471</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9308035671710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16206</v>
+        <v>2648.08740234375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9557510509210474</v>
       </c>
       <c r="E49" t="n">
-        <v>16205.8310546875</v>
+        <v>2647.997831456802</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C50" t="n">
-        <v>15874.880859375</v>
+        <v>2562.287475585938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9491202726083643</v>
       </c>
       <c r="E50" t="n">
-        <v>15874.76331676136</v>
+        <v>2562.219252642463</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,784 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C51" t="n">
-        <v>15550.20654296875</v>
+        <v>2479.037109375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9904545545578003</v>
+        <v>0.9417673314318937</v>
       </c>
       <c r="E51" t="n">
-        <v>15550.10182883523</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15231.65966796875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9937500032511625</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15231.59046519886</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9825000166893005</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14919.3193359375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.990340915593234</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14919.21439985795</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14612.85400390625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14612.75763494318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14312.4091796875</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9907954606142911</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14312.21599786932</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14017.505859375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9912500056353483</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14017.40465198864</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13728.33642578125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9961363673210144</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13728.24760298295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13444.77490234375</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9938636422157288</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13444.68803267045</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13166.6494140625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.994772732257843</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13166.54518821023</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12893.833984375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12893.76393821023</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12626.4599609375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9861363768577576</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12626.27299360795</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12364.05712890625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9864772829142484</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12363.88307883523</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12106.58544921875</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9930681857195768</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12106.52547940341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11854.19921875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9907954606142911</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11854.16539417614</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11606.75634765625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9926136406985197</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11606.67942116477</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11364.0576171875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9869318279353055</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11363.99378551136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11126.1171875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9931818246841431</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11125.96368963068</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10892.66796875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9930681857195768</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10892.56613991477</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10663.8076171875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10663.669921875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10439.3251953125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10439.2431640625</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10219.2177734375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9938636422157288</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10219.15882457386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10003.40625</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9928409132090482</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10003.36390269886</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9791.81103515625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9931818246841431</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9791.747780539772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9584.375</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9898863705721769</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9584.29012784091</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9381.03955078125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9917045506564054</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9380.86141690341</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9181.484375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9912500056353483</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9181.43172940341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C77" t="n">
-        <v>8985.951171875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9917045506564054</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8985.874378551136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8794.224609375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9879545569419861</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8794.153675426136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8606.2470703125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9890909194946289</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8606.179421164772</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8421.91650390625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8421.888849431818</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8241.3046875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9897727370262146</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8241.24112215909</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6935483870967742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.717741935483871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7258064516129032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9758064516129032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9758064516129032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9919354838709677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.4137931034482759</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9919354838709677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.4137931034482759</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9963848720800891</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9947163515016686</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9947163515016686</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7586206896551724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9947163515016686</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7758620689655172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9947163515016686</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8017241379310345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9947163515016686</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9827586206896551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02419354838709677</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9947163515016686</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9827586206896551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.02419354838709677</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9947163515016686</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9947163515016686</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>2478.960219439338</v>
       </c>
     </row>
   </sheetData>
